--- a/src/main/resources/template/AkrosTemplate.xlsx
+++ b/src/main/resources/template/AkrosTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan.katic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan.katic\Desktop\Akros\reveal-server\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FDA7CB-3DFE-45BD-9A03-C9C4D6A7EA07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D543DD-DECD-4E99-A209-59D93B0D7B66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{778F857F-39C1-41E0-9680-19B5E23A64F4}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +474,19 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{AF6ED3A7-3D9E-4A62-8BB2-52081E611841}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Allowed values are TRUE or FALSE or blank(FALSE)" sqref="F2" xr:uid="{1ADCE3F9-2727-40D3-8742-3F8F84B86A7C}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Use ; as delimiter" promptTitle="Delimiter" prompt="Use ; as delimiter" sqref="H1:H1048576" xr:uid="{35FBE68F-6658-46E9-B64E-4783FC33542A}">
+      <formula1>ISERROR(FIND(",",H1))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="User ; as delimiter" promptTitle="Delimiter" prompt="Use ; as delimiter" sqref="G1:G1048576" xr:uid="{6243BCAA-C64B-4238-B9A0-0CB5932C33E9}">
+      <formula1>ISERROR(FIND(",",G1))</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
